--- a/LegacyDatabase/NewsType.xlsx
+++ b/LegacyDatabase/NewsType.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Cinema\LegacyDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10528F74-54EF-4810-94E3-3D1C445CEA71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F00316C-001C-434F-907C-1B55EBDD5BD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NewsTypes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -372,7 +378,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="F4:G4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
